--- a/data_and_headers_processed.xlsx
+++ b/data_and_headers_processed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="329">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1000,6 +1000,9 @@
   <si>
     <t>T6</t>
   </si>
+  <si>
+    <t>No use any</t>
+  </si>
 </sst>
 </file>
 
@@ -1562,8 +1565,8 @@
   <dimension ref="A1:AS313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15022,7 +15025,7 @@
         <v>309</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="I99" s="8">
         <v>4</v>
